--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_AppropriationGroupProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_AppropriationGroupProfile_EditProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E9CC1E-20AC-47B5-BFFE-8506D924C2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FA90AE-55C7-431E-98FC-C5E1464136C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Keyword</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>NewTitleEntered</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>EditProfile_AppropriationGroupProfile</t>
+  </si>
+  <si>
+    <t>SavePopUp_AppropriationGroupProfile</t>
   </si>
 </sst>
 </file>
@@ -206,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -217,6 +226,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,36 +636,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -666,8 +673,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -681,28 +688,55 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -714,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C79D857-71AE-4A12-9C5E-402C404CDC26}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
